--- a/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/similarity_4_parsed_output/tokens_potential.xlsx
+++ b/error_counts/biodivner/Meta-Llama-3.1-405B-Instruct/similarity_4_parsed_output/tokens_potential.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C501"/>
+  <dimension ref="A1:C502"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5928,7 +5928,7 @@
     <row r="367">
       <c r="A367" t="inlineStr">
         <is>
-          <t>Irish Law</t>
+          <t>Directive</t>
         </is>
       </c>
       <c r="B367" t="inlineStr">
@@ -5943,7 +5943,7 @@
     <row r="368">
       <c r="A368" t="inlineStr">
         <is>
-          <t>European Communities</t>
+          <t>Irish Law</t>
         </is>
       </c>
       <c r="B368" t="inlineStr">
@@ -5958,7 +5958,7 @@
     <row r="369">
       <c r="A369" t="inlineStr">
         <is>
-          <t>Health of Aquaculture Animals and Products</t>
+          <t>European Communities</t>
         </is>
       </c>
       <c r="B369" t="inlineStr">
@@ -5973,7 +5973,7 @@
     <row r="370">
       <c r="A370" t="inlineStr">
         <is>
-          <t>Regulations 2008</t>
+          <t>Health of Aquaculture Animals and Products</t>
         </is>
       </c>
       <c r="B370" t="inlineStr">
@@ -5988,12 +5988,12 @@
     <row r="371">
       <c r="A371" t="inlineStr">
         <is>
-          <t>Sierra Leonean national park</t>
+          <t>Regulations 2008</t>
         </is>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C371" t="n">
@@ -6003,12 +6003,12 @@
     <row r="372">
       <c r="A372" t="inlineStr">
         <is>
-          <t>Shannon-Wiener biodiversity indices</t>
+          <t>Sierra Leonean national park</t>
         </is>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C372" t="n">
@@ -6018,7 +6018,7 @@
     <row r="373">
       <c r="A373" t="inlineStr">
         <is>
-          <t>fungal abundance</t>
+          <t>Shannon-Wiener biodiversity indices</t>
         </is>
       </c>
       <c r="B373" t="inlineStr">
@@ -6033,7 +6033,7 @@
     <row r="374">
       <c r="A374" t="inlineStr">
         <is>
-          <t>environmental parameters</t>
+          <t>fungal abundance</t>
         </is>
       </c>
       <c r="B374" t="inlineStr">
@@ -6048,12 +6048,12 @@
     <row r="375">
       <c r="A375" t="inlineStr">
         <is>
-          <t>Intermountain West</t>
+          <t>environmental parameters</t>
         </is>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C375" t="n">
@@ -6063,12 +6063,12 @@
     <row r="376">
       <c r="A376" t="inlineStr">
         <is>
-          <t>branch</t>
+          <t>Intermountain West</t>
         </is>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C376" t="n">
@@ -6078,7 +6078,7 @@
     <row r="377">
       <c r="A377" t="inlineStr">
         <is>
-          <t>branches</t>
+          <t>branch</t>
         </is>
       </c>
       <c r="B377" t="inlineStr">
@@ -6093,7 +6093,7 @@
     <row r="378">
       <c r="A378" t="inlineStr">
         <is>
-          <t>Hemiptera</t>
+          <t>branches</t>
         </is>
       </c>
       <c r="B378" t="inlineStr">
@@ -6108,12 +6108,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>Levantine Basin</t>
+          <t>Hemiptera</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C379" t="n">
@@ -6123,22 +6123,22 @@
     <row r="380">
       <c r="A380" t="inlineStr">
         <is>
-          <t>Species_Tax</t>
+          <t>Levantine Basin</t>
         </is>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C380" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="381">
       <c r="A381" t="inlineStr">
         <is>
-          <t>functional trait</t>
+          <t>Species_Tax</t>
         </is>
       </c>
       <c r="B381" t="inlineStr">
@@ -6147,13 +6147,13 @@
         </is>
       </c>
       <c r="C381" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="382">
       <c r="A382" t="inlineStr">
         <is>
-          <t>N-fixation</t>
+          <t>functional trait</t>
         </is>
       </c>
       <c r="B382" t="inlineStr">
@@ -6168,7 +6168,7 @@
     <row r="383">
       <c r="A383" t="inlineStr">
         <is>
-          <t>species origin</t>
+          <t>N-fixation</t>
         </is>
       </c>
       <c r="B383" t="inlineStr">
@@ -6183,12 +6183,12 @@
     <row r="384">
       <c r="A384" t="inlineStr">
         <is>
-          <t>forest restoration</t>
+          <t>species origin</t>
         </is>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C384" t="n">
@@ -6198,7 +6198,7 @@
     <row r="385">
       <c r="A385" t="inlineStr">
         <is>
-          <t>community evolution</t>
+          <t>forest restoration</t>
         </is>
       </c>
       <c r="B385" t="inlineStr">
@@ -6213,12 +6213,12 @@
     <row r="386">
       <c r="A386" t="inlineStr">
         <is>
-          <t>holobiont communities</t>
+          <t>community evolution</t>
         </is>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C386" t="n">
@@ -6228,7 +6228,7 @@
     <row r="387">
       <c r="A387" t="inlineStr">
         <is>
-          <t>human population densities</t>
+          <t>holobiont communities</t>
         </is>
       </c>
       <c r="B387" t="inlineStr">
@@ -6243,12 +6243,12 @@
     <row r="388">
       <c r="A388" t="inlineStr">
         <is>
-          <t>land-use</t>
+          <t>human population densities</t>
         </is>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C388" t="n">
@@ -6258,12 +6258,12 @@
     <row r="389">
       <c r="A389" t="inlineStr">
         <is>
-          <t>invasive species</t>
+          <t>land-use</t>
         </is>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C389" t="n">
@@ -6273,12 +6273,12 @@
     <row r="390">
       <c r="A390" t="inlineStr">
         <is>
-          <t>habitat fragmentation</t>
+          <t>invasive species</t>
         </is>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C390" t="n">
@@ -6288,7 +6288,7 @@
     <row r="391">
       <c r="A391" t="inlineStr">
         <is>
-          <t>experiments</t>
+          <t>habitat fragmentation</t>
         </is>
       </c>
       <c r="B391" t="inlineStr">
@@ -6303,12 +6303,12 @@
     <row r="392">
       <c r="A392" t="inlineStr">
         <is>
-          <t>marine hard bottom communities</t>
+          <t>experiments</t>
         </is>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C392" t="n">
@@ -6318,12 +6318,12 @@
     <row r="393">
       <c r="A393" t="inlineStr">
         <is>
-          <t>environments</t>
+          <t>marine hard bottom communities</t>
         </is>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C393" t="n">
@@ -6333,12 +6333,12 @@
     <row r="394">
       <c r="A394" t="inlineStr">
         <is>
-          <t>CSPs</t>
+          <t>environments</t>
         </is>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C394" t="n">
@@ -6348,12 +6348,12 @@
     <row r="395">
       <c r="A395" t="inlineStr">
         <is>
-          <t>logged forest</t>
+          <t>CSPs</t>
         </is>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C395" t="n">
@@ -6363,7 +6363,7 @@
     <row r="396">
       <c r="A396" t="inlineStr">
         <is>
-          <t>monocultures</t>
+          <t>logged forest</t>
         </is>
       </c>
       <c r="B396" t="inlineStr">
@@ -6378,7 +6378,7 @@
     <row r="397">
       <c r="A397" t="inlineStr">
         <is>
-          <t>Main Experiment</t>
+          <t>monocultures</t>
         </is>
       </c>
       <c r="B397" t="inlineStr">
@@ -6393,7 +6393,7 @@
     <row r="398">
       <c r="A398" t="inlineStr">
         <is>
-          <t>Seedling addition experiment</t>
+          <t>Main Experiment</t>
         </is>
       </c>
       <c r="B398" t="inlineStr">
@@ -6408,7 +6408,7 @@
     <row r="399">
       <c r="A399" t="inlineStr">
         <is>
-          <t>common garden experiment</t>
+          <t>Seedling addition experiment</t>
         </is>
       </c>
       <c r="B399" t="inlineStr">
@@ -6423,7 +6423,7 @@
     <row r="400">
       <c r="A400" t="inlineStr">
         <is>
-          <t>Sand-filled splash cups</t>
+          <t>common garden experiment</t>
         </is>
       </c>
       <c r="B400" t="inlineStr">
@@ -6438,7 +6438,7 @@
     <row r="401">
       <c r="A401" t="inlineStr">
         <is>
-          <t>ecotones</t>
+          <t>Sand-filled splash cups</t>
         </is>
       </c>
       <c r="B401" t="inlineStr">
@@ -6453,12 +6453,12 @@
     <row r="402">
       <c r="A402" t="inlineStr">
         <is>
-          <t>species migrations</t>
+          <t>ecotones</t>
         </is>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C402" t="n">
@@ -6468,7 +6468,7 @@
     <row r="403">
       <c r="A403" t="inlineStr">
         <is>
-          <t>ecotone migrations</t>
+          <t>species migrations</t>
         </is>
       </c>
       <c r="B403" t="inlineStr">
@@ -6483,7 +6483,7 @@
     <row r="404">
       <c r="A404" t="inlineStr">
         <is>
-          <t>species persistence</t>
+          <t>ecotone migrations</t>
         </is>
       </c>
       <c r="B404" t="inlineStr">
@@ -6498,12 +6498,12 @@
     <row r="405">
       <c r="A405" t="inlineStr">
         <is>
-          <t>Competition index</t>
+          <t>species persistence</t>
         </is>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C405" t="n">
@@ -6513,12 +6513,12 @@
     <row r="406">
       <c r="A406" t="inlineStr">
         <is>
-          <t>monomethylarsonic acid</t>
+          <t>Competition index</t>
         </is>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C406" t="n">
@@ -6528,7 +6528,7 @@
     <row r="407">
       <c r="A407" t="inlineStr">
         <is>
-          <t>monomethylarsonous acid</t>
+          <t>monomethylarsonic acid</t>
         </is>
       </c>
       <c r="B407" t="inlineStr">
@@ -6543,12 +6543,12 @@
     <row r="408">
       <c r="A408" t="inlineStr">
         <is>
-          <t>species distinction</t>
+          <t>monomethylarsonous acid</t>
         </is>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C408" t="n">
@@ -6558,12 +6558,12 @@
     <row r="409">
       <c r="A409" t="inlineStr">
         <is>
-          <t>microbiology</t>
+          <t>species distinction</t>
         </is>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C409" t="n">
@@ -6573,12 +6573,12 @@
     <row r="410">
       <c r="A410" t="inlineStr">
         <is>
-          <t>chemical carbon-based</t>
+          <t>microbiology</t>
         </is>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C410" t="n">
@@ -6588,12 +6588,12 @@
     <row r="411">
       <c r="A411" t="inlineStr">
         <is>
-          <t>leaf defence traits</t>
+          <t>chemical carbon-based</t>
         </is>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C411" t="n">
@@ -6603,7 +6603,7 @@
     <row r="412">
       <c r="A412" t="inlineStr">
         <is>
-          <t>information</t>
+          <t>leaf defence traits</t>
         </is>
       </c>
       <c r="B412" t="inlineStr">
@@ -6618,7 +6618,7 @@
     <row r="413">
       <c r="A413" t="inlineStr">
         <is>
-          <t>data analysis</t>
+          <t>information</t>
         </is>
       </c>
       <c r="B413" t="inlineStr">
@@ -6633,7 +6633,7 @@
     <row r="414">
       <c r="A414" t="inlineStr">
         <is>
-          <t>Main Experiment</t>
+          <t>data analysis</t>
         </is>
       </c>
       <c r="B414" t="inlineStr">
@@ -6642,43 +6642,43 @@
         </is>
       </c>
       <c r="C414" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="415">
       <c r="A415" t="inlineStr">
         <is>
-          <t>individual trees</t>
+          <t>Main Experiment</t>
         </is>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C415" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="416">
       <c r="A416" t="inlineStr">
         <is>
-          <t>Samplecode</t>
+          <t>individual trees</t>
         </is>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C416" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="417">
       <c r="A417" t="inlineStr">
         <is>
-          <t>Identifier</t>
+          <t>Samplecode</t>
         </is>
       </c>
       <c r="B417" t="inlineStr">
@@ -6693,57 +6693,57 @@
     <row r="418">
       <c r="A418" t="inlineStr">
         <is>
-          <t>Sample.Collector</t>
+          <t>Identifier</t>
         </is>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C418" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
     </row>
     <row r="419">
       <c r="A419" t="inlineStr">
         <is>
-          <t>Helper column</t>
+          <t>Sample.Collector</t>
         </is>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C419" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="420">
       <c r="A420" t="inlineStr">
         <is>
-          <t>fallow types</t>
+          <t>Helper column</t>
         </is>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C420" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="421">
       <c r="A421" t="inlineStr">
         <is>
-          <t>disturbance</t>
+          <t>fallow types</t>
         </is>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C421" t="n">
@@ -6753,12 +6753,12 @@
     <row r="422">
       <c r="A422" t="inlineStr">
         <is>
-          <t>major taxa</t>
+          <t>disturbance</t>
         </is>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C422" t="n">
@@ -6768,12 +6768,12 @@
     <row r="423">
       <c r="A423" t="inlineStr">
         <is>
-          <t>marine ecosystem</t>
+          <t>major taxa</t>
         </is>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C423" t="n">
@@ -6783,12 +6783,12 @@
     <row r="424">
       <c r="A424" t="inlineStr">
         <is>
-          <t>species lists</t>
+          <t>marine ecosystem</t>
         </is>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C424" t="n">
@@ -6798,7 +6798,7 @@
     <row r="425">
       <c r="A425" t="inlineStr">
         <is>
-          <t>Organism</t>
+          <t>species lists</t>
         </is>
       </c>
       <c r="B425" t="inlineStr">
@@ -6813,7 +6813,7 @@
     <row r="426">
       <c r="A426" t="inlineStr">
         <is>
-          <t>Fish Health Unit</t>
+          <t>Organism</t>
         </is>
       </c>
       <c r="B426" t="inlineStr">
@@ -6822,33 +6822,33 @@
         </is>
       </c>
       <c r="C426" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="427">
       <c r="A427" t="inlineStr">
         <is>
-          <t>Ireland</t>
+          <t>Fish Health Unit</t>
         </is>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C427" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="428">
       <c r="A428" t="inlineStr">
         <is>
-          <t>Fish Health regulations</t>
+          <t>Ireland</t>
         </is>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C428" t="n">
@@ -6858,7 +6858,7 @@
     <row r="429">
       <c r="A429" t="inlineStr">
         <is>
-          <t>Fish Health monitoring</t>
+          <t>Fish Health regulations</t>
         </is>
       </c>
       <c r="B429" t="inlineStr">
@@ -6873,42 +6873,42 @@
     <row r="430">
       <c r="A430" t="inlineStr">
         <is>
-          <t>finfish</t>
+          <t>Fish Health monitoring</t>
         </is>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C430" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="431">
       <c r="A431" t="inlineStr">
         <is>
-          <t>trophobioses</t>
+          <t>finfish</t>
         </is>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C431" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="432">
       <c r="A432" t="inlineStr">
         <is>
-          <t>Biodiversity Conservation Hotspot</t>
+          <t>trophobioses</t>
         </is>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C432" t="n">
@@ -6918,12 +6918,12 @@
     <row r="433">
       <c r="A433" t="inlineStr">
         <is>
-          <t>land conservation</t>
+          <t>Biodiversity Conservation Hotspot</t>
         </is>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C433" t="n">
@@ -6933,7 +6933,7 @@
     <row r="434">
       <c r="A434" t="inlineStr">
         <is>
-          <t>poverty alleviation</t>
+          <t>land conservation</t>
         </is>
       </c>
       <c r="B434" t="inlineStr">
@@ -6948,12 +6948,12 @@
     <row r="435">
       <c r="A435" t="inlineStr">
         <is>
-          <t>dbh</t>
+          <t>poverty alleviation</t>
         </is>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C435" t="n">
@@ -6963,12 +6963,12 @@
     <row r="436">
       <c r="A436" t="inlineStr">
         <is>
-          <t>target tree</t>
+          <t>dbh</t>
         </is>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C436" t="n">
@@ -6978,12 +6978,12 @@
     <row r="437">
       <c r="A437" t="inlineStr">
         <is>
-          <t>slope inclination</t>
+          <t>target tree</t>
         </is>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C437" t="n">
@@ -6993,7 +6993,7 @@
     <row r="438">
       <c r="A438" t="inlineStr">
         <is>
-          <t>slope aspect</t>
+          <t>slope inclination</t>
         </is>
       </c>
       <c r="B438" t="inlineStr">
@@ -7008,7 +7008,7 @@
     <row r="439">
       <c r="A439" t="inlineStr">
         <is>
-          <t>covariations</t>
+          <t>slope aspect</t>
         </is>
       </c>
       <c r="B439" t="inlineStr">
@@ -7023,7 +7023,7 @@
     <row r="440">
       <c r="A440" t="inlineStr">
         <is>
-          <t>phylogenetic non-independence</t>
+          <t>covariations</t>
         </is>
       </c>
       <c r="B440" t="inlineStr">
@@ -7038,12 +7038,12 @@
     <row r="441">
       <c r="A441" t="inlineStr">
         <is>
-          <t>Location</t>
+          <t>phylogenetic non-independence</t>
         </is>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C441" t="n">
@@ -7053,12 +7053,12 @@
     <row r="442">
       <c r="A442" t="inlineStr">
         <is>
-          <t>pitfall trap</t>
+          <t>Location</t>
         </is>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C442" t="n">
@@ -7068,7 +7068,7 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>Plant and Animal Species Atlas</t>
+          <t>pitfall trap</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
@@ -7077,28 +7077,28 @@
         </is>
       </c>
       <c r="C443" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="444">
       <c r="A444" t="inlineStr">
         <is>
-          <t>vascular plants</t>
+          <t>Plant and Animal Species Atlas</t>
         </is>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C444" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="445">
       <c r="A445" t="inlineStr">
         <is>
-          <t>ferns</t>
+          <t>vascular plants</t>
         </is>
       </c>
       <c r="B445" t="inlineStr">
@@ -7113,7 +7113,7 @@
     <row r="446">
       <c r="A446" t="inlineStr">
         <is>
-          <t>Insect Herbivore</t>
+          <t>ferns</t>
         </is>
       </c>
       <c r="B446" t="inlineStr">
@@ -7128,12 +7128,12 @@
     <row r="447">
       <c r="A447" t="inlineStr">
         <is>
-          <t>Microbiome</t>
+          <t>Insect Herbivore</t>
         </is>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C447" t="n">
@@ -7143,12 +7143,12 @@
     <row r="448">
       <c r="A448" t="inlineStr">
         <is>
-          <t>plant cell walls</t>
+          <t>Microbiome</t>
         </is>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C448" t="n">
@@ -7158,7 +7158,7 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>GeiÃŸler</t>
+          <t>plant cell walls</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
@@ -7173,7 +7173,7 @@
     <row r="450">
       <c r="A450" t="inlineStr">
         <is>
-          <t>Scholten</t>
+          <t>GeiÃŸler</t>
         </is>
       </c>
       <c r="B450" t="inlineStr">
@@ -7188,7 +7188,7 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>KÃ¼hn</t>
+          <t>Scholten</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
@@ -7203,7 +7203,7 @@
     <row r="452">
       <c r="A452" t="inlineStr">
         <is>
-          <t>Woody debris</t>
+          <t>KÃ¼hn</t>
         </is>
       </c>
       <c r="B452" t="inlineStr">
@@ -7212,33 +7212,33 @@
         </is>
       </c>
       <c r="C452" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="453">
       <c r="A453" t="inlineStr">
         <is>
-          <t>Corsica Island</t>
+          <t>Woody debris</t>
         </is>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="454">
       <c r="A454" t="inlineStr">
         <is>
-          <t>plant biodiversity</t>
+          <t>Corsica Island</t>
         </is>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C454" t="n">
@@ -7248,37 +7248,37 @@
     <row r="455">
       <c r="A455" t="inlineStr">
         <is>
-          <t>Anthropocene</t>
+          <t>plant biodiversity</t>
         </is>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C455" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="456">
       <c r="A456" t="inlineStr">
         <is>
-          <t>Urban Park Ranger</t>
+          <t>Anthropocene</t>
         </is>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C456" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="457">
       <c r="A457" t="inlineStr">
         <is>
-          <t>fetidin/lysenins</t>
+          <t>Urban Park Ranger</t>
         </is>
       </c>
       <c r="B457" t="inlineStr">
@@ -7293,7 +7293,7 @@
     <row r="458">
       <c r="A458" t="inlineStr">
         <is>
-          <t>E. fetida</t>
+          <t>fetidin/lysenins</t>
         </is>
       </c>
       <c r="B458" t="inlineStr">
@@ -7308,7 +7308,7 @@
     <row r="459">
       <c r="A459" t="inlineStr">
         <is>
-          <t>compost microbiota</t>
+          <t>E. fetida</t>
         </is>
       </c>
       <c r="B459" t="inlineStr">
@@ -7323,12 +7323,12 @@
     <row r="460">
       <c r="A460" t="inlineStr">
         <is>
-          <t>compost</t>
+          <t>compost microbiota</t>
         </is>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C460" t="n">
@@ -7338,12 +7338,12 @@
     <row r="461">
       <c r="A461" t="inlineStr">
         <is>
-          <t>species number</t>
+          <t>compost</t>
         </is>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C461" t="n">
@@ -7353,12 +7353,12 @@
     <row r="462">
       <c r="A462" t="inlineStr">
         <is>
-          <t>individuals</t>
+          <t>species number</t>
         </is>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C462" t="n">
@@ -7368,12 +7368,12 @@
     <row r="463">
       <c r="A463" t="inlineStr">
         <is>
-          <t>carbon footprint</t>
+          <t>individuals</t>
         </is>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C463" t="n">
@@ -7383,12 +7383,12 @@
     <row r="464">
       <c r="A464" t="inlineStr">
         <is>
-          <t>Pilot experiment</t>
+          <t>carbon footprint</t>
         </is>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C464" t="n">
@@ -7398,7 +7398,7 @@
     <row r="465">
       <c r="A465" t="inlineStr">
         <is>
-          <t>stratum stratum</t>
+          <t>Pilot experiment</t>
         </is>
       </c>
       <c r="B465" t="inlineStr">
@@ -7413,12 +7413,12 @@
     <row r="466">
       <c r="A466" t="inlineStr">
         <is>
-          <t>biodiversity changes</t>
+          <t>stratum stratum</t>
         </is>
       </c>
       <c r="B466" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C466" t="n">
@@ -7428,12 +7428,12 @@
     <row r="467">
       <c r="A467" t="inlineStr">
         <is>
-          <t>human populations</t>
+          <t>biodiversity changes</t>
         </is>
       </c>
       <c r="B467" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C467" t="n">
@@ -7443,12 +7443,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>BDE-209</t>
+          <t>human populations</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C468" t="n">
@@ -7458,12 +7458,12 @@
     <row r="469">
       <c r="A469" t="inlineStr">
         <is>
-          <t>forest dynamics</t>
+          <t>BDE-209</t>
         </is>
       </c>
       <c r="B469" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C469" t="n">
@@ -7473,12 +7473,12 @@
     <row r="470">
       <c r="A470" t="inlineStr">
         <is>
-          <t>biodiversity structure</t>
+          <t>forest dynamics</t>
         </is>
       </c>
       <c r="B470" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C470" t="n">
@@ -7488,7 +7488,7 @@
     <row r="471">
       <c r="A471" t="inlineStr">
         <is>
-          <t>annual mortality rate</t>
+          <t>biodiversity structure</t>
         </is>
       </c>
       <c r="B471" t="inlineStr">
@@ -7503,7 +7503,7 @@
     <row r="472">
       <c r="A472" t="inlineStr">
         <is>
-          <t>species abundance distribution</t>
+          <t>annual mortality rate</t>
         </is>
       </c>
       <c r="B472" t="inlineStr">
@@ -7518,7 +7518,7 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>species–area relationship</t>
+          <t>species abundance distribution</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
@@ -7533,7 +7533,7 @@
     <row r="474">
       <c r="A474" t="inlineStr">
         <is>
-          <t>functional groups</t>
+          <t>species–area relationship</t>
         </is>
       </c>
       <c r="B474" t="inlineStr">
@@ -7548,12 +7548,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>German Centre for Integrative Biodiversity Research</t>
+          <t>functional groups</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C475" t="n">
@@ -7563,7 +7563,7 @@
     <row r="476">
       <c r="A476" t="inlineStr">
         <is>
-          <t>iDiv</t>
+          <t>German Centre for Integrative Biodiversity Research</t>
         </is>
       </c>
       <c r="B476" t="inlineStr">
@@ -7578,12 +7578,12 @@
     <row r="477">
       <c r="A477" t="inlineStr">
         <is>
-          <t>Deutscher Platz</t>
+          <t>iDiv</t>
         </is>
       </c>
       <c r="B477" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C477" t="n">
@@ -7593,12 +7593,12 @@
     <row r="478">
       <c r="A478" t="inlineStr">
         <is>
-          <t>chemolithoautotrophic bacterial diversity</t>
+          <t>Deutscher Platz</t>
         </is>
       </c>
       <c r="B478" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C478" t="n">
@@ -7608,7 +7608,7 @@
     <row r="479">
       <c r="A479" t="inlineStr">
         <is>
-          <t>photoautotrophic bacterial diversity</t>
+          <t>chemolithoautotrophic bacterial diversity</t>
         </is>
       </c>
       <c r="B479" t="inlineStr">
@@ -7623,12 +7623,12 @@
     <row r="480">
       <c r="A480" t="inlineStr">
         <is>
-          <t>biochemical carbon cycling</t>
+          <t>photoautotrophic bacterial diversity</t>
         </is>
       </c>
       <c r="B480" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C480" t="n">
@@ -7638,12 +7638,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>barren saline soils</t>
+          <t>biochemical carbon cycling</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C481" t="n">
@@ -7653,12 +7653,12 @@
     <row r="482">
       <c r="A482" t="inlineStr">
         <is>
-          <t>changes</t>
+          <t>barren saline soils</t>
         </is>
       </c>
       <c r="B482" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C482" t="n">
@@ -7668,7 +7668,7 @@
     <row r="483">
       <c r="A483" t="inlineStr">
         <is>
-          <t>effects</t>
+          <t>changes</t>
         </is>
       </c>
       <c r="B483" t="inlineStr">
@@ -7683,12 +7683,12 @@
     <row r="484">
       <c r="A484" t="inlineStr">
         <is>
-          <t>assessed community metrics</t>
+          <t>effects</t>
         </is>
       </c>
       <c r="B484" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C484" t="n">
@@ -7698,12 +7698,12 @@
     <row r="485">
       <c r="A485" t="inlineStr">
         <is>
-          <t>Acta Oecologica</t>
+          <t>assessed community metrics</t>
         </is>
       </c>
       <c r="B485" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C485" t="n">
@@ -7713,12 +7713,12 @@
     <row r="486">
       <c r="A486" t="inlineStr">
         <is>
-          <t>barcode data</t>
+          <t>Acta Oecologica</t>
         </is>
       </c>
       <c r="B486" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C486" t="n">
@@ -7728,7 +7728,7 @@
     <row r="487">
       <c r="A487" t="inlineStr">
         <is>
-          <t>species inventory</t>
+          <t>barcode data</t>
         </is>
       </c>
       <c r="B487" t="inlineStr">
@@ -7743,7 +7743,7 @@
     <row r="488">
       <c r="A488" t="inlineStr">
         <is>
-          <t>adult genitalia variation</t>
+          <t>species inventory</t>
         </is>
       </c>
       <c r="B488" t="inlineStr">
@@ -7758,12 +7758,12 @@
     <row r="489">
       <c r="A489" t="inlineStr">
         <is>
-          <t>caterpillar ecology</t>
+          <t>adult genitalia variation</t>
         </is>
       </c>
       <c r="B489" t="inlineStr">
         <is>
-          <t>PHENOMENA</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C489" t="n">
@@ -7773,12 +7773,12 @@
     <row r="490">
       <c r="A490" t="inlineStr">
         <is>
-          <t>terrestrial ecosystem</t>
+          <t>caterpillar ecology</t>
         </is>
       </c>
       <c r="B490" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>PHENOMENA</t>
         </is>
       </c>
       <c r="C490" t="n">
@@ -7788,12 +7788,12 @@
     <row r="491">
       <c r="A491" t="inlineStr">
         <is>
-          <t>lithology classes</t>
+          <t>terrestrial ecosystem</t>
         </is>
       </c>
       <c r="B491" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C491" t="n">
@@ -7803,12 +7803,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>vegetation types</t>
+          <t>lithology classes</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>ORGANISM</t>
+          <t>QUALITY</t>
         </is>
       </c>
       <c r="C492" t="n">
@@ -7818,7 +7818,7 @@
     <row r="493">
       <c r="A493" t="inlineStr">
         <is>
-          <t>Kruckeberg</t>
+          <t>vegetation types</t>
         </is>
       </c>
       <c r="B493" t="inlineStr">
@@ -7833,12 +7833,12 @@
     <row r="494">
       <c r="A494" t="inlineStr">
         <is>
-          <t>lower bathyal habitat</t>
+          <t>Kruckeberg</t>
         </is>
       </c>
       <c r="B494" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>ORGANISM</t>
         </is>
       </c>
       <c r="C494" t="n">
@@ -7848,12 +7848,12 @@
     <row r="495">
       <c r="A495" t="inlineStr">
         <is>
-          <t>North Atlantic</t>
+          <t>lower bathyal habitat</t>
         </is>
       </c>
       <c r="B495" t="inlineStr">
         <is>
-          <t>LOCATION</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C495" t="n">
@@ -7863,12 +7863,12 @@
     <row r="496">
       <c r="A496" t="inlineStr">
         <is>
-          <t>fine soft sediment substrate</t>
+          <t>North Atlantic</t>
         </is>
       </c>
       <c r="B496" t="inlineStr">
         <is>
-          <t>MATTER</t>
+          <t>LOCATION</t>
         </is>
       </c>
       <c r="C496" t="n">
@@ -7878,12 +7878,12 @@
     <row r="497">
       <c r="A497" t="inlineStr">
         <is>
-          <t>flat terraces</t>
+          <t>fine soft sediment substrate</t>
         </is>
       </c>
       <c r="B497" t="inlineStr">
         <is>
-          <t>ENVIRONMENT</t>
+          <t>MATTER</t>
         </is>
       </c>
       <c r="C497" t="n">
@@ -7893,7 +7893,7 @@
     <row r="498">
       <c r="A498" t="inlineStr">
         <is>
-          <t>intervening slopes</t>
+          <t>flat terraces</t>
         </is>
       </c>
       <c r="B498" t="inlineStr">
@@ -7908,7 +7908,7 @@
     <row r="499">
       <c r="A499" t="inlineStr">
         <is>
-          <t>ridge axis</t>
+          <t>intervening slopes</t>
         </is>
       </c>
       <c r="B499" t="inlineStr">
@@ -7923,12 +7923,12 @@
     <row r="500">
       <c r="A500" t="inlineStr">
         <is>
-          <t>habitat heterogeneity</t>
+          <t>ridge axis</t>
         </is>
       </c>
       <c r="B500" t="inlineStr">
         <is>
-          <t>QUALITY</t>
+          <t>ENVIRONMENT</t>
         </is>
       </c>
       <c r="C500" t="n">
@@ -7938,15 +7938,30 @@
     <row r="501">
       <c r="A501" t="inlineStr">
         <is>
+          <t>habitat heterogeneity</t>
+        </is>
+      </c>
+      <c r="B501" t="inlineStr">
+        <is>
+          <t>QUALITY</t>
+        </is>
+      </c>
+      <c r="C501" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
           <t>bioturbation</t>
         </is>
       </c>
-      <c r="B501" t="inlineStr">
-        <is>
-          <t>PHENOMENA</t>
-        </is>
-      </c>
-      <c r="C501" t="n">
+      <c r="B502" t="inlineStr">
+        <is>
+          <t>PHENOMENA</t>
+        </is>
+      </c>
+      <c r="C502" t="n">
         <v>1</v>
       </c>
     </row>
